--- a/statusContatos.xlsx
+++ b/statusContatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Metricas ONVIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Metricas ONVIO - Versao Antigravity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC1E1A2-0EF9-424D-98C1-BD6DAF815CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89A06E-D3B2-4CB3-B7BF-DCF63CC1798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="769">
   <si>
     <t>Nome do Contato</t>
   </si>
@@ -2330,6 +2330,27 @@
   </si>
   <si>
     <t>LILIAN CRISTIANE CLA</t>
+  </si>
+  <si>
+    <t>José Carlos  ( contab. anterior TECHPOSTO)</t>
+  </si>
+  <si>
+    <t>551139669783</t>
+  </si>
+  <si>
+    <t>FELIPE REIS</t>
+  </si>
+  <si>
+    <t>5518996414465</t>
+  </si>
+  <si>
+    <t>Renata Alencar - ABAMULTI e ABA KIDS</t>
+  </si>
+  <si>
+    <t>+5511973046565</t>
+  </si>
+  <si>
+    <t>ABAMULTI</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2531,126 +2552,16 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFB5F5F"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -3413,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J281"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,11 +3813,11 @@
       </c>
       <c r="I18" s="23">
         <f>COUNTIF(E2:E1000,"&lt;&gt;")/I17</f>
-        <v>0.99641577060931896</v>
+        <v>1.0071684587813621</v>
       </c>
       <c r="J18">
         <f>I18*I17</f>
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,11 +3841,11 @@
       </c>
       <c r="I19" s="24">
         <f>1-I18</f>
-        <v>3.5842293906810374E-3</v>
+        <v>-7.1684587813620748E-3</v>
       </c>
       <c r="J19">
         <f>I19*I17</f>
-        <v>1.0000000000000093</v>
+        <v>-2.0000000000000187</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8408,8 +8319,40 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281"/>
-      <c r="E281"/>
+      <c r="A281" t="s">
+        <v>762</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="D281" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>768</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G267" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -8417,38 +8360,21 @@
       <sortCondition ref="C1:C267"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:C117 A119:C1048576">
-    <cfRule type="expression" dxfId="24" priority="6">
+  <conditionalFormatting sqref="A2:C1048576">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$C2="TAXBASE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$C2="Contato não cadastrado na empresa"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$C2="Cliente não identificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$C2="Usuario inativo ou não registrado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$C2="Cadastrado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:C118">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$C118="TAXBASE"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$C118="Contato não cadastrado na empresa"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C118="Cliente não identificado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$C118="Usuario inativo ou não registrado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$C118="Cadastrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8659,36 +8585,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:F8">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$C7="TAXBASE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C7="Contato não cadastrado na empresa"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$C7="Cliente não identificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$C7="Usuario inativo ou não registrado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$C7="Cadastrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H30">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$C30="TAXBASE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$C30="Contato não cadastrado na empresa"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$C30="Cliente não identificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$C30="Usuario inativo ou não registrado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C30="Cadastrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9401,19 +9327,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$C2="TAXBASE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C2="Contato não cadastrado na empresa"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C2="Cliente não identificado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C2="Usuario inativo ou não registrado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$C2="Cadastrado"</formula>
     </cfRule>
   </conditionalFormatting>
